--- a/Assets/StreamingAssets/Excels/VRDeviceData.xlsx
+++ b/Assets/StreamingAssets/Excels/VRDeviceData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\_Git\TestSteamVR\Assets\StreamingAssets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\_Git\SteamVR__IK\Assets\StreamingAssets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5A3659-F227-497D-AE46-98723640AEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634D3684-D35B-4E90-B10F-0275DB82BB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="0" windowWidth="14430" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30360" yWindow="1500" windowWidth="24075" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AIO MN,AA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>头</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -198,67 +194,87 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3B-3BE00489</t>
-  </si>
-  <si>
     <t>Leg_L</t>
   </si>
   <si>
+    <t>Device4</t>
+  </si>
+  <si>
+    <t>Leg_R</t>
+  </si>
+  <si>
+    <t>VRCamera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右脚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pelvis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hmd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3B-3BD00761</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3B-3BD00797</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3B-3BD00770</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Device3</t>
-  </si>
-  <si>
-    <t>Device4</t>
-  </si>
-  <si>
-    <t>3B-3BE00501</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3B-3BE00500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leg_R</t>
-  </si>
-  <si>
-    <t>VRCamera</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>头显</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>右脚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pelvis</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨盆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手柄1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手柄2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hmd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIVE XR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTL_LEFT</t>
+  </si>
+  <si>
+    <t>htc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTL_RIGHT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vive XR Streaming</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vive_cosmos_controller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIO MN</t>
   </si>
 </sst>
 </file>
@@ -646,14 +662,17 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9" style="3"/>
+    <col min="1" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="14" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="7" max="7" width="11.125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -664,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -684,119 +703,137 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
